--- a/docs/Spec_Sample.xlsx
+++ b/docs/Spec_Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Nabs\TechTrek.TenantDomain\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9372203-B19E-4941-B751-885DC4659C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D385A61C-662E-473C-98E9-5834D9F8CE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{F8C6DDD0-DC10-4D20-B9C2-DD52D5779F9A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="98">
   <si>
     <t>Property Name</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Previous Row TaxRate.DateFrom + 1 day</t>
+  </si>
+  <si>
+    <t>Tax rate</t>
+  </si>
+  <si>
+    <t>Between 0 and 1</t>
   </si>
 </sst>
 </file>
@@ -718,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A0C560-F10E-4596-807B-62ED4333A302}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,28 +798,40 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -822,7 +840,85 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -830,102 +926,114 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -937,27 +1045,36 @@
         <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" t="s">
         <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -965,56 +1082,62 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1033,37 +1156,43 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1072,55 +1201,61 @@
         <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1129,125 +1264,140 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>83</v>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>59</v>
@@ -1266,11 +1416,14 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>59</v>
@@ -1288,27 +1441,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" t="s">
-        <v>48</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1316,10 +1472,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -1328,70 +1484,79 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
       <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>41</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -1400,44 +1565,50 @@
         <v>84</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" t="s">
+        <v>84</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1446,18 +1617,21 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>59</v>
@@ -1469,64 +1643,73 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
         <v>65</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
         <v>66</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>71</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>55</v>
       </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>67</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
         <v>69</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>70</v>
-      </c>
-      <c r="D46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
       </c>
       <c r="D47" t="s">
         <v>59</v>
@@ -1541,6 +1724,32 @@
         <v>65</v>
       </c>
       <c r="H47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" t="s">
         <v>90</v>
       </c>
     </row>
